--- a/mbs-perturbation/nano/welm/nearmiss/nano_welm_lin_nearmiss_results.xlsx
+++ b/mbs-perturbation/nano/welm/nearmiss/nano_welm_lin_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7073170731707317</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.25</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5705741626794258</v>
+        <v>0.4806094182825484</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6585365853658537</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4615384615384615</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7214285714285714</v>
+        <v>0.5554016620498614</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.625</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6491228070175439</v>
+        <v>0.6537396121883657</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="D5" t="n">
-        <v>0.625</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7005012531328321</v>
+        <v>0.6661764705882354</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.575</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4137931034482759</v>
+        <v>0.4615384615384615</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5227272727272727</v>
+        <v>0.6147058823529412</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.653170731707317</v>
+        <v>0.601280227596017</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3897334244702665</v>
+        <v>0.2884829721362229</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5234429363739708</v>
+        <v>0.4158119658119658</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6328708133971291</v>
+        <v>0.5941266090923905</v>
       </c>
     </row>
   </sheetData>
